--- a/schedule2013-10-14.xlsx
+++ b/schedule2013-10-14.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
-  <si>
-    <t>live</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>learn</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,6 +43,22 @@
   </si>
   <si>
     <t>lunch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>live, today todos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learn, read</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work, learn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -520,7 +532,7 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,7 +547,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4">
         <f>C1-B1</f>
@@ -557,10 +569,10 @@
         <v>0.3125</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" s="10">
-        <f t="shared" ref="E2:E14" si="0">C2-B2</f>
+        <f t="shared" ref="E2:E15" si="0">C2-B2</f>
         <v>8.3333333333333343E-2</v>
       </c>
       <c r="F2" s="9">
@@ -576,14 +588,14 @@
         <v>0.3125</v>
       </c>
       <c r="C3" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.3263888888888889</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>2.0833333333333315E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -594,18 +606,18 @@
         <v>4</v>
       </c>
       <c r="B4" s="10">
-        <f t="shared" ref="B4:B14" si="1">C3</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="B4:B15" si="1">C3</f>
+        <v>0.3263888888888889</v>
       </c>
       <c r="C4" s="11">
         <v>0.40972222222222227</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>7.6388888888888951E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -623,7 +635,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
@@ -645,7 +657,7 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
@@ -667,7 +679,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
@@ -689,7 +701,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
@@ -711,7 +723,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -733,7 +745,7 @@
         <v>0.68055555555555547</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
@@ -755,7 +767,7 @@
         <v>0.75</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
@@ -774,14 +786,14 @@
         <v>0.75</v>
       </c>
       <c r="C12" s="5">
-        <v>0.80555555555555547</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>5.5555555555555469E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -793,17 +805,17 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>0.80555555555555547</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="C13" s="5">
-        <v>0.83333333333333337</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>2.7777777777777901E-2</v>
+        <v>2.7777777777777679E-2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -815,80 +827,102 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.82638888888888884</v>
       </c>
       <c r="C14" s="11">
         <v>0.91666666666666663</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>8.3333333333333259E-2</v>
+        <v>9.027777777777779E-2</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:6" s="9" customFormat="1">
+      <c r="A15" s="9">
         <v>15</v>
       </c>
-      <c r="B15" s="7">
-        <f>C14</f>
+      <c r="B15" s="10">
+        <f t="shared" si="1"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="11">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7">
+        <f>C15</f>
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="C16" s="8">
         <f>B1</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7">
-        <f>24-(B15-C15)</f>
-        <v>23.291666666666668</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <f>24-(B16-C16)</f>
+        <v>23.277777777777779</v>
+      </c>
+      <c r="F16" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" s="15" customFormat="1">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="E17" s="18">
-        <f>SUMIF(F$1:F$15,F17,E$1:E$15)</f>
-        <v>0.18055555555555547</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" s="12" customFormat="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="E18" s="20">
-        <f t="shared" ref="E18:E19" si="2">SUMIF(F$1:F$15,F18,E$1:E$15)</f>
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="F18" s="21">
+    <row r="17" spans="2:6" s="6" customFormat="1">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" s="15" customFormat="1">
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="E18" s="18">
+        <f>SUMIF(F$1:F$16,F18,E$1:E$16)</f>
+        <v>0.16666666666666652</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="12" customFormat="1">
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="E19" s="20">
+        <f t="shared" ref="E19:E20" si="2">SUMIF(F$1:F$16,F19,E$1:E$16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="6" customFormat="1">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="E19" s="22">
+    <row r="20" spans="2:6" s="6" customFormat="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="22">
         <f t="shared" si="2"/>
-        <v>23.347222222222225</v>
-      </c>
-      <c r="F19" s="23">
+        <v>23.333333333333336</v>
+      </c>
+      <c r="F20" s="23">
         <v>3</v>
       </c>
     </row>

--- a/schedule2013-10-14.xlsx
+++ b/schedule2013-10-14.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dinner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sleep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -46,11 +42,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>review</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>live, today todos</t>
+    <t>work, learn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -58,7 +50,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>work, learn</t>
+    <t>get up, clean up, today todos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dinner, bathe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>put the light out, review</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +524,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -532,7 +532,7 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
     <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,14 +544,14 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="C1" s="5">
-        <v>0.22916666666666666</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4">
         <f>C1-B1</f>
-        <v>2.0833333333333315E-2</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F1" s="3">
         <v>1</v>
@@ -563,17 +563,17 @@
       </c>
       <c r="B2" s="10">
         <f>C1</f>
-        <v>0.22916666666666666</v>
+        <v>0.23611111111111113</v>
       </c>
       <c r="C2" s="11">
         <v>0.3125</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E15" si="0">C2-B2</f>
-        <v>8.3333333333333343E-2</v>
+        <v>7.6388888888888867E-2</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -588,14 +588,14 @@
         <v>0.3125</v>
       </c>
       <c r="C3" s="5">
-        <v>0.3263888888888889</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="0"/>
-        <v>1.3888888888888895E-2</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -607,7 +607,7 @@
       </c>
       <c r="B4" s="10">
         <f t="shared" ref="B4:B15" si="1">C3</f>
-        <v>0.3263888888888889</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="11">
         <v>0.40972222222222227</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>8.333333333333337E-2</v>
+        <v>7.6388888888888951E-2</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -657,7 +657,7 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10">
         <f t="shared" si="0"/>
@@ -676,14 +676,14 @@
         <v>0.49305555555555558</v>
       </c>
       <c r="C7" s="5">
-        <v>0.52777777777777779</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>3.472222222222221E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -695,17 +695,17 @@
       </c>
       <c r="B8" s="7">
         <f t="shared" si="1"/>
-        <v>0.52777777777777779</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="C8" s="8">
-        <v>0.58333333333333337</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>5.555555555555558E-2</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -717,13 +717,13 @@
       </c>
       <c r="B9" s="10">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="C9" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E9" s="10">
         <f t="shared" si="0"/>
@@ -739,17 +739,17 @@
       </c>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="C10" s="5">
-        <v>0.68055555555555547</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -761,17 +761,17 @@
       </c>
       <c r="B11" s="10">
         <f t="shared" si="1"/>
-        <v>0.68055555555555547</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="C11" s="11">
-        <v>0.75</v>
+        <v>0.75694444444444453</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" s="10">
         <f t="shared" si="0"/>
-        <v>6.9444444444444531E-2</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F11" s="9">
         <v>2</v>
@@ -782,18 +782,18 @@
         <v>12</v>
       </c>
       <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f>C11</f>
+        <v>0.75694444444444453</v>
       </c>
       <c r="C12" s="5">
-        <v>0.79861111111111116</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>4.8611111111110938E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -805,17 +805,17 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>0.79861111111111116</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="C13" s="5">
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>2.7777777777777679E-2</v>
+        <v>4.861111111111116E-2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" si="1"/>
-        <v>0.82638888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C14" s="11">
         <v>0.91666666666666663</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>9.027777777777779E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -852,14 +852,14 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="C15" s="11">
-        <v>0.93055555555555547</v>
+        <v>0.9375</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E15" s="10">
         <f t="shared" si="0"/>
-        <v>1.388888888888884E-2</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
@@ -871,18 +871,18 @@
       </c>
       <c r="B16" s="7">
         <f>C15</f>
-        <v>0.93055555555555547</v>
+        <v>0.9375</v>
       </c>
       <c r="C16" s="8">
         <f>B1</f>
         <v>0.20833333333333334</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="7">
         <f>24-(B16-C16)</f>
-        <v>23.277777777777779</v>
+        <v>23.270833333333332</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -898,7 +898,7 @@
       <c r="C18" s="17"/>
       <c r="E18" s="18">
         <f>SUMIF(F$1:F$16,F18,E$1:E$16)</f>
-        <v>0.16666666666666652</v>
+        <v>0.2083333333333332</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -909,7 +909,7 @@
       <c r="C19" s="14"/>
       <c r="E19" s="20">
         <f t="shared" ref="E19:E20" si="2">SUMIF(F$1:F$16,F19,E$1:E$16)</f>
-        <v>0.5</v>
+        <v>0.47916666666666674</v>
       </c>
       <c r="F19" s="21">
         <v>2</v>
@@ -920,7 +920,7 @@
       <c r="C20" s="8"/>
       <c r="E20" s="22">
         <f t="shared" si="2"/>
-        <v>23.333333333333336</v>
+        <v>23.3125</v>
       </c>
       <c r="F20" s="23">
         <v>3</v>

--- a/schedule2013-10-14.xlsx
+++ b/schedule2013-10-14.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -541,17 +541,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="C1" s="5">
-        <v>0.23611111111111113</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4">
         <f>C1-B1</f>
-        <v>2.777777777777779E-2</v>
+        <v>2.7777777777777818E-2</v>
       </c>
       <c r="F1" s="3">
         <v>1</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" s="10">
         <f>C1</f>
-        <v>0.23611111111111113</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C2" s="11">
         <v>0.3125</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E15" si="0">C2-B2</f>
-        <v>7.6388888888888867E-2</v>
+        <v>5.5555555555555525E-2</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -786,14 +786,14 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="C12" s="5">
-        <v>0.80555555555555547</v>
+        <v>0.8125</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>4.8611111111110938E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -805,7 +805,7 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>0.80555555555555547</v>
+        <v>0.8125</v>
       </c>
       <c r="C13" s="5">
         <v>0.85416666666666663</v>
@@ -815,7 +815,7 @@
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -875,14 +875,14 @@
       </c>
       <c r="C16" s="8">
         <f>B1</f>
-        <v>0.20833333333333334</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="7">
         <f>24-(B16-C16)</f>
-        <v>23.270833333333332</v>
+        <v>23.291666666666668</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -898,7 +898,7 @@
       <c r="C18" s="17"/>
       <c r="E18" s="18">
         <f>SUMIF(F$1:F$16,F18,E$1:E$16)</f>
-        <v>0.2083333333333332</v>
+        <v>0.20833333333333323</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -909,7 +909,7 @@
       <c r="C19" s="14"/>
       <c r="E19" s="20">
         <f t="shared" ref="E19:E20" si="2">SUMIF(F$1:F$16,F19,E$1:E$16)</f>
-        <v>0.47916666666666674</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="F19" s="21">
         <v>2</v>
@@ -920,7 +920,7 @@
       <c r="C20" s="8"/>
       <c r="E20" s="22">
         <f t="shared" si="2"/>
-        <v>23.3125</v>
+        <v>23.333333333333336</v>
       </c>
       <c r="F20" s="23">
         <v>3</v>

--- a/schedule2013-10-14.xlsx
+++ b/schedule2013-10-14.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="17220" windowHeight="8808"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="17220" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -229,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -524,16 +524,16 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="1"/>
+    <col min="3" max="3" width="8.875" style="2"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
@@ -544,14 +544,14 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="C1" s="5">
-        <v>0.25694444444444448</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4">
         <f>C1-B1</f>
-        <v>2.7777777777777818E-2</v>
+        <v>1.3888888888888895E-2</v>
       </c>
       <c r="F1" s="3">
         <v>1</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" s="10">
         <f>C1</f>
-        <v>0.25694444444444448</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C2" s="11">
         <v>0.3125</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E15" si="0">C2-B2</f>
-        <v>5.5555555555555525E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -610,14 +610,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="11">
-        <v>0.40972222222222227</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="10">
         <f t="shared" si="0"/>
-        <v>7.6388888888888951E-2</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" si="1"/>
-        <v>0.40972222222222227</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="C5" s="5">
         <v>0.41666666666666669</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>6.9444444444444198E-3</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -786,14 +786,14 @@
         <v>0.75694444444444453</v>
       </c>
       <c r="C12" s="5">
-        <v>0.8125</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="0"/>
-        <v>5.5555555555555469E-2</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -805,10 +805,10 @@
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
-        <v>0.8125</v>
+        <v>0.79861111111111116</v>
       </c>
       <c r="C13" s="5">
-        <v>0.85416666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -827,7 +827,7 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" si="1"/>
-        <v>0.85416666666666663</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="C14" s="11">
         <v>0.91666666666666663</v>
@@ -837,7 +837,7 @@
       </c>
       <c r="E14" s="10">
         <f t="shared" si="0"/>
-        <v>6.25E-2</v>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -898,7 +898,7 @@
       <c r="C18" s="17"/>
       <c r="E18" s="18">
         <f>SUMIF(F$1:F$16,F18,E$1:E$16)</f>
-        <v>0.20833333333333323</v>
+        <v>0.1875</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -909,7 +909,7 @@
       <c r="C19" s="14"/>
       <c r="E19" s="20">
         <f t="shared" ref="E19:E20" si="2">SUMIF(F$1:F$16,F19,E$1:E$16)</f>
-        <v>0.45833333333333337</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="F19" s="21">
         <v>2</v>
@@ -939,7 +939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,7 +952,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule2013-10-14.xlsx
+++ b/schedule2013-10-14.xlsx
@@ -524,7 +524,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -541,17 +541,17 @@
         <v>1</v>
       </c>
       <c r="B1" s="4">
-        <v>0.22916666666666666</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="C1" s="5">
-        <v>0.24305555555555555</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4">
         <f>C1-B1</f>
-        <v>1.3888888888888895E-2</v>
+        <v>6.9444444444444475E-3</v>
       </c>
       <c r="F1" s="3">
         <v>1</v>
@@ -563,7 +563,7 @@
       </c>
       <c r="B2" s="10">
         <f>C1</f>
-        <v>0.24305555555555555</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="11">
         <v>0.3125</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="E2" s="10">
         <f t="shared" ref="E2:E15" si="0">C2-B2</f>
-        <v>6.9444444444444448E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -808,14 +808,14 @@
         <v>0.79861111111111116</v>
       </c>
       <c r="C13" s="5">
-        <v>0.84027777777777779</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>4.166666666666663E-2</v>
+        <v>5.5555555555555469E-2</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -827,10 +827,10 @@
       </c>
       <c r="B14" s="10">
         <f t="shared" si="1"/>
-        <v>0.84027777777777779</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="C14" s="11">
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>0</v>
@@ -849,10 +849,10 @@
       </c>
       <c r="B15" s="10">
         <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
+        <v>0.93055555555555547</v>
       </c>
       <c r="C15" s="11">
-        <v>0.9375</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>10</v>
@@ -871,11 +871,11 @@
       </c>
       <c r="B16" s="7">
         <f>C15</f>
-        <v>0.9375</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="C16" s="8">
         <f>B1</f>
-        <v>0.22916666666666666</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>4</v>
@@ -898,7 +898,7 @@
       <c r="C18" s="17"/>
       <c r="E18" s="18">
         <f>SUMIF(F$1:F$16,F18,E$1:E$16)</f>
-        <v>0.1875</v>
+        <v>0.19444444444444439</v>
       </c>
       <c r="F18" s="19">
         <v>1</v>
@@ -909,7 +909,7 @@
       <c r="C19" s="14"/>
       <c r="E19" s="20">
         <f t="shared" ref="E19:E20" si="2">SUMIF(F$1:F$16,F19,E$1:E$16)</f>
-        <v>0.47916666666666663</v>
+        <v>0.47222222222222215</v>
       </c>
       <c r="F19" s="21">
         <v>2</v>
